--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.01010166666667</v>
+        <v>10.41951533333333</v>
       </c>
       <c r="H2">
-        <v>30.030305</v>
+        <v>31.258546</v>
       </c>
       <c r="I2">
-        <v>0.1850069534308159</v>
+        <v>0.2236054036880828</v>
       </c>
       <c r="J2">
-        <v>0.1850069534308159</v>
+        <v>0.2236054036880827</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1935943333333333</v>
+        <v>0.1988276666666666</v>
       </c>
       <c r="N2">
-        <v>0.5807829999999999</v>
+        <v>0.5964829999999999</v>
       </c>
       <c r="O2">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="P2">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="Q2">
-        <v>1.937898958757222</v>
+        <v>2.071687921524222</v>
       </c>
       <c r="R2">
-        <v>17.441090628815</v>
+        <v>18.645191293718</v>
       </c>
       <c r="S2">
-        <v>0.01386528935000732</v>
+        <v>0.01800385948988911</v>
       </c>
       <c r="T2">
-        <v>0.01386528935000732</v>
+        <v>0.01800385948988911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.01010166666667</v>
+        <v>10.41951533333333</v>
       </c>
       <c r="H3">
-        <v>30.030305</v>
+        <v>31.258546</v>
       </c>
       <c r="I3">
-        <v>0.1850069534308159</v>
+        <v>0.2236054036880828</v>
       </c>
       <c r="J3">
-        <v>0.1850069534308159</v>
+        <v>0.2236054036880827</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.91912</v>
       </c>
       <c r="O3">
-        <v>0.6347670968714321</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="P3">
-        <v>0.634767096871432</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="Q3">
-        <v>16.41363043684445</v>
+        <v>17.08494875550223</v>
       </c>
       <c r="R3">
-        <v>147.7226739316</v>
+        <v>153.76453879952</v>
       </c>
       <c r="S3">
-        <v>0.1174363267303072</v>
+        <v>0.1484755563761303</v>
       </c>
       <c r="T3">
-        <v>0.1174363267303072</v>
+        <v>0.1484755563761303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.01010166666667</v>
+        <v>10.41951533333333</v>
       </c>
       <c r="H4">
-        <v>30.030305</v>
+        <v>31.258546</v>
       </c>
       <c r="I4">
-        <v>0.1850069534308159</v>
+        <v>0.2236054036880828</v>
       </c>
       <c r="J4">
-        <v>0.1850069534308159</v>
+        <v>0.2236054036880827</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7498616666666668</v>
+        <v>0.6308773333333333</v>
       </c>
       <c r="N4">
-        <v>2.249585</v>
+        <v>1.892632</v>
       </c>
       <c r="O4">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="P4">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="Q4">
-        <v>7.506191519269446</v>
+        <v>6.573436048119111</v>
       </c>
       <c r="R4">
-        <v>67.55572367342501</v>
+        <v>59.160924433072</v>
       </c>
       <c r="S4">
-        <v>0.05370533735050135</v>
+        <v>0.05712598782206334</v>
       </c>
       <c r="T4">
-        <v>0.05370533735050135</v>
+        <v>0.05712598782206334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>42.955392</v>
       </c>
       <c r="I5">
-        <v>0.2646342155814415</v>
+        <v>0.3072778167205806</v>
       </c>
       <c r="J5">
-        <v>0.2646342155814415</v>
+        <v>0.3072778167205806</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1935943333333333</v>
+        <v>0.1988276666666666</v>
       </c>
       <c r="N5">
-        <v>0.5807829999999999</v>
+        <v>0.5964829999999999</v>
       </c>
       <c r="O5">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="P5">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="Q5">
-        <v>2.771973492437333</v>
+        <v>2.846906787370666</v>
       </c>
       <c r="R5">
-        <v>24.94776143193599</v>
+        <v>25.62216108633599</v>
       </c>
       <c r="S5">
-        <v>0.01983293007590131</v>
+        <v>0.02474084501246816</v>
       </c>
       <c r="T5">
-        <v>0.01983293007590131</v>
+        <v>0.02474084501246816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>42.955392</v>
       </c>
       <c r="I6">
-        <v>0.2646342155814415</v>
+        <v>0.3072778167205806</v>
       </c>
       <c r="J6">
-        <v>0.2646342155814415</v>
+        <v>0.3072778167205806</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>4.91912</v>
       </c>
       <c r="O6">
-        <v>0.6347670968714321</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="P6">
-        <v>0.634767096871432</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="Q6">
         <v>23.47808087722667</v>
@@ -821,10 +821,10 @@
         <v>211.30272789504</v>
       </c>
       <c r="S6">
-        <v>0.1679810927574803</v>
+        <v>0.2040346254926501</v>
       </c>
       <c r="T6">
-        <v>0.1679810927574803</v>
+        <v>0.2040346254926501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>42.955392</v>
       </c>
       <c r="I7">
-        <v>0.2646342155814415</v>
+        <v>0.3072778167205806</v>
       </c>
       <c r="J7">
-        <v>0.2646342155814415</v>
+        <v>0.3072778167205806</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7498616666666668</v>
+        <v>0.6308773333333333</v>
       </c>
       <c r="N7">
-        <v>2.249585</v>
+        <v>1.892632</v>
       </c>
       <c r="O7">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="P7">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="Q7">
-        <v>10.73686727914667</v>
+        <v>9.033194385749331</v>
       </c>
       <c r="R7">
-        <v>96.63180551232</v>
+        <v>81.29874947174399</v>
       </c>
       <c r="S7">
-        <v>0.07682019274805989</v>
+        <v>0.07850234621546238</v>
       </c>
       <c r="T7">
-        <v>0.07682019274805989</v>
+        <v>0.07850234621546238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.74662</v>
+        <v>11.62895333333333</v>
       </c>
       <c r="H8">
-        <v>35.23986</v>
+        <v>34.88686</v>
       </c>
       <c r="I8">
-        <v>0.2171013294046954</v>
+        <v>0.2495602454992508</v>
       </c>
       <c r="J8">
-        <v>0.2171013294046954</v>
+        <v>0.2495602454992508</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1935943333333333</v>
+        <v>0.1988276666666666</v>
       </c>
       <c r="N8">
-        <v>0.5807829999999999</v>
+        <v>0.5964829999999999</v>
       </c>
       <c r="O8">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="P8">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="Q8">
-        <v>2.27407906782</v>
+        <v>2.312157657042222</v>
       </c>
       <c r="R8">
-        <v>20.46671161038</v>
+        <v>20.80941891338</v>
       </c>
       <c r="S8">
-        <v>0.01627059250825954</v>
+        <v>0.02009364496619365</v>
       </c>
       <c r="T8">
-        <v>0.01627059250825954</v>
+        <v>0.02009364496619365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.74662</v>
+        <v>11.62895333333333</v>
       </c>
       <c r="H9">
-        <v>35.23986</v>
+        <v>34.88686</v>
       </c>
       <c r="I9">
-        <v>0.2171013294046954</v>
+        <v>0.2495602454992508</v>
       </c>
       <c r="J9">
-        <v>0.2171013294046954</v>
+        <v>0.2495602454992508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>4.91912</v>
       </c>
       <c r="O9">
-        <v>0.6347670968714321</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="P9">
-        <v>0.634767096871432</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="Q9">
-        <v>19.2610111248</v>
+        <v>19.06807230702222</v>
       </c>
       <c r="R9">
-        <v>173.3491001232</v>
+        <v>171.6126507632</v>
       </c>
       <c r="S9">
-        <v>0.137808780593147</v>
+        <v>0.1657097533812406</v>
       </c>
       <c r="T9">
-        <v>0.137808780593147</v>
+        <v>0.1657097533812406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.74662</v>
+        <v>11.62895333333333</v>
       </c>
       <c r="H10">
-        <v>35.23986</v>
+        <v>34.88686</v>
       </c>
       <c r="I10">
-        <v>0.2171013294046954</v>
+        <v>0.2495602454992508</v>
       </c>
       <c r="J10">
-        <v>0.2171013294046954</v>
+        <v>0.2495602454992508</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7498616666666668</v>
+        <v>0.6308773333333333</v>
       </c>
       <c r="N10">
-        <v>2.249585</v>
+        <v>1.892632</v>
       </c>
       <c r="O10">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="P10">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="Q10">
-        <v>8.808340050900002</v>
+        <v>7.336443068391111</v>
       </c>
       <c r="R10">
-        <v>79.2750604581</v>
+        <v>66.02798761551999</v>
       </c>
       <c r="S10">
-        <v>0.06302195630328891</v>
+        <v>0.06375684715181661</v>
       </c>
       <c r="T10">
-        <v>0.06302195630328891</v>
+        <v>0.06375684715181661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.03143833333333</v>
+        <v>10.230847</v>
       </c>
       <c r="H11">
-        <v>54.094315</v>
+        <v>30.692541</v>
       </c>
       <c r="I11">
-        <v>0.3332575015830471</v>
+        <v>0.2195565340920857</v>
       </c>
       <c r="J11">
-        <v>0.3332575015830471</v>
+        <v>0.2195565340920857</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1935943333333333</v>
+        <v>0.1988276666666666</v>
       </c>
       <c r="N11">
-        <v>0.5807829999999999</v>
+        <v>0.5964829999999999</v>
       </c>
       <c r="O11">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="P11">
-        <v>0.07494469312037129</v>
+        <v>0.08051620932651297</v>
       </c>
       <c r="Q11">
-        <v>3.490784283182777</v>
+        <v>2.034175437033666</v>
       </c>
       <c r="R11">
-        <v>31.417058548645</v>
+        <v>18.307578933303</v>
       </c>
       <c r="S11">
-        <v>0.02497588118620311</v>
+        <v>0.01767785985796206</v>
       </c>
       <c r="T11">
-        <v>0.02497588118620311</v>
+        <v>0.01767785985796206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.03143833333333</v>
+        <v>10.230847</v>
       </c>
       <c r="H12">
-        <v>54.094315</v>
+        <v>30.692541</v>
       </c>
       <c r="I12">
-        <v>0.3332575015830471</v>
+        <v>0.2195565340920857</v>
       </c>
       <c r="J12">
-        <v>0.3332575015830471</v>
+        <v>0.2195565340920857</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>4.91912</v>
       </c>
       <c r="O12">
-        <v>0.6347670968714321</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="P12">
-        <v>0.634767096871432</v>
+        <v>0.6640070138163814</v>
       </c>
       <c r="Q12">
-        <v>29.56626964475556</v>
+        <v>16.77558803154667</v>
       </c>
       <c r="R12">
-        <v>266.0964268028</v>
+        <v>150.98029228392</v>
       </c>
       <c r="S12">
-        <v>0.2115408967904975</v>
+        <v>0.1457870785663604</v>
       </c>
       <c r="T12">
-        <v>0.2115408967904974</v>
+        <v>0.1457870785663604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.03143833333333</v>
+        <v>10.230847</v>
       </c>
       <c r="H13">
-        <v>54.094315</v>
+        <v>30.692541</v>
       </c>
       <c r="I13">
-        <v>0.3332575015830471</v>
+        <v>0.2195565340920857</v>
       </c>
       <c r="J13">
-        <v>0.3332575015830471</v>
+        <v>0.2195565340920857</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7498616666666668</v>
+        <v>0.6308773333333333</v>
       </c>
       <c r="N13">
-        <v>2.249585</v>
+        <v>1.892632</v>
       </c>
       <c r="O13">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="P13">
-        <v>0.2902882100081967</v>
+        <v>0.2554767768571056</v>
       </c>
       <c r="Q13">
-        <v>13.52108440103056</v>
+        <v>6.454409473101332</v>
       </c>
       <c r="R13">
-        <v>121.689759609275</v>
+        <v>58.089685257912</v>
       </c>
       <c r="S13">
-        <v>0.0967407236063465</v>
+        <v>0.05609159566776329</v>
       </c>
       <c r="T13">
-        <v>0.0967407236063465</v>
+        <v>0.05609159566776329</v>
       </c>
     </row>
   </sheetData>
